--- a/A - Assignment 3 WPS.xlsx
+++ b/A - Assignment 3 WPS.xlsx
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="K149" sqref="K149"/>
+    <sheetView tabSelected="1" topLeftCell="B209" workbookViewId="0">
+      <selection activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4958,7 +4958,7 @@
         <v>10</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f>IF(AND($B$100:$B$119=$E$100:$E$119),"Same Day","Delayed")</f>
+        <f>IF($B$100:$B$119=$E$100:$E$119,"Same Day","Delayed")</f>
         <v>Same Day</v>
       </c>
       <c r="J100" s="1"/>
@@ -4999,7 +4999,7 @@
         <v>11</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" ref="I101:I119" si="4">IF(AND($B$100:$B$119=$E$100:$E$119),"Same Day","Delayed")</f>
+        <f t="shared" ref="I101:I119" si="4">IF($B$100:$B$119=$E$100:$E$119,"Same Day","Delayed")</f>
         <v>Delayed</v>
       </c>
       <c r="J101" s="1"/>
@@ -5869,9 +5869,9 @@
       <c r="H123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I123" s="13">
-        <f>IF(D123&lt;=500,1%,IF(D123&lt;=1200,3%,IF(D123&lt;=1700,7%,IF(D123&lt;=2800,15%,IF(D123&gt;=2801,15%,0)))))</f>
-        <v>0.15</v>
+      <c r="I123" s="13" t="str">
+        <f>IF(D123&gt;=2800,"15%",IF(D123&gt;=1700,"7%",IF(D123&gt;=1200,"3%","1%")))</f>
+        <v>7%</v>
       </c>
       <c r="J123" s="14"/>
       <c r="K123" s="1"/>
@@ -5910,9 +5910,9 @@
       <c r="H124" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I124" s="13">
-        <f t="shared" ref="I124:I142" si="5">IF(D124&lt;=500,1%,IF(D124&lt;=1200,3%,IF(D124&lt;=1700,7%,IF(D124&lt;=2800,15%,IF(D124&gt;=2801,15%,0)))))</f>
-        <v>0.15</v>
+      <c r="I124" s="13" t="str">
+        <f t="shared" ref="I124:I142" si="5">IF(D124&gt;=2800,"15%",IF(D124&gt;=1700,"7%",IF(D124&gt;=1200,"3%","1%")))</f>
+        <v>7%</v>
       </c>
       <c r="J124" s="14"/>
       <c r="K124" s="1"/>
@@ -5951,9 +5951,9 @@
       <c r="H125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I125" s="13">
+      <c r="I125" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>1%</v>
       </c>
       <c r="J125" s="14"/>
       <c r="K125" s="1"/>
@@ -5992,9 +5992,9 @@
       <c r="H126" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I126" s="13">
+      <c r="I126" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>7%</v>
       </c>
       <c r="J126" s="14"/>
       <c r="K126" s="1"/>
@@ -6033,9 +6033,9 @@
       <c r="H127" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I127" s="13">
+      <c r="I127" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>15%</v>
       </c>
       <c r="J127" s="14"/>
       <c r="K127" s="1"/>
@@ -6074,9 +6074,9 @@
       <c r="H128" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I128" s="13">
+      <c r="I128" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>1%</v>
       </c>
       <c r="J128" s="14"/>
       <c r="K128" s="1"/>
@@ -6115,9 +6115,9 @@
       <c r="H129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I129" s="13">
+      <c r="I129" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>1%</v>
       </c>
       <c r="J129" s="14"/>
       <c r="K129" s="1"/>
@@ -6156,9 +6156,9 @@
       <c r="H130" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I130" s="13">
+      <c r="I130" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>1%</v>
       </c>
       <c r="J130" s="14"/>
       <c r="K130" s="1"/>
@@ -6197,9 +6197,9 @@
       <c r="H131" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I131" s="13">
+      <c r="I131" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>1%</v>
       </c>
       <c r="J131" s="14"/>
       <c r="K131" s="1"/>
@@ -6238,9 +6238,9 @@
       <c r="H132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I132" s="13">
+      <c r="I132" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3%</v>
       </c>
       <c r="J132" s="14"/>
       <c r="K132" s="1"/>
@@ -6279,9 +6279,9 @@
       <c r="H133" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I133" s="13">
+      <c r="I133" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>1%</v>
       </c>
       <c r="J133" s="14"/>
       <c r="K133" s="1"/>
@@ -6320,9 +6320,9 @@
       <c r="H134" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I134" s="13">
+      <c r="I134" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>1%</v>
       </c>
       <c r="J134" s="14"/>
       <c r="K134" s="1"/>
@@ -6361,9 +6361,9 @@
       <c r="H135" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I135" s="13">
+      <c r="I135" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>1%</v>
       </c>
       <c r="J135" s="14"/>
       <c r="K135" s="1"/>
@@ -6402,9 +6402,9 @@
       <c r="H136" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I136" s="13">
+      <c r="I136" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>1%</v>
       </c>
       <c r="J136" s="14"/>
       <c r="K136" s="1"/>
@@ -6443,9 +6443,9 @@
       <c r="H137" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I137" s="13">
+      <c r="I137" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>1%</v>
       </c>
       <c r="J137" s="14"/>
       <c r="K137" s="1"/>
@@ -6484,9 +6484,9 @@
       <c r="H138" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I138" s="13">
+      <c r="I138" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>7%</v>
       </c>
       <c r="J138" s="14"/>
       <c r="K138" s="1"/>
@@ -6525,9 +6525,9 @@
       <c r="H139" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I139" s="13">
+      <c r="I139" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>1%</v>
       </c>
       <c r="J139" s="14"/>
       <c r="K139" s="1"/>
@@ -6566,9 +6566,9 @@
       <c r="H140" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I140" s="13">
+      <c r="I140" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>1%</v>
       </c>
       <c r="J140" s="14"/>
       <c r="K140" s="1"/>
@@ -6607,9 +6607,9 @@
       <c r="H141" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="13">
+      <c r="I141" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>1%</v>
       </c>
       <c r="J141" s="14"/>
       <c r="K141" s="1"/>
@@ -6648,9 +6648,9 @@
       <c r="H142" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I142" s="13">
+      <c r="I142" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>1%</v>
       </c>
       <c r="J142" s="14"/>
       <c r="K142" s="1"/>
